--- a/file/temp/ExcelTableToMarkDownSample.xlsx
+++ b/file/temp/ExcelTableToMarkDownSample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D_SSD2TB\R.HCMC\file\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D_SSD2TB\R.DAPC\file\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4D2BCE-FA49-420E-8959-B40EA3C1A05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78640CCB-8F36-4B93-BEFE-4F72589BC15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="189">
   <si>
     <t>Creación de tablas en formato .md</t>
   </si>
@@ -516,15 +516,6 @@
     <t>CG-01 Clasificación general del territorio.&lt;br&gt;&lt;br&gt;DR-01a Categorías de protección y desarrollo restringido en suelo rural.&lt;br&gt;&lt;br&gt;CG-03 Categorías de protección y desarrollo restringido en suelo rural.&lt;br&gt;&lt;br&gt;DU-13 Perímetro y división política urbana.&lt;br&gt;&lt;br&gt;DR-14 Clasificación general del territorio.&lt;br&gt;&lt;br&gt;DR-16 Límites y división política rural.&lt;br&gt;&lt;br&gt;CG-06 División política rural.&lt;br&gt;&lt;br&gt;CG-07 División política urbana.&lt;br&gt;&lt;br&gt;DR-17 Predios de propiedad del Municipio.&lt;br&gt;&lt;br&gt;DU-03 Sistema urbano de acueducto.&lt;br&gt;&lt;br&gt;DU-04 Sistema urbano de alcantarillado.</t>
   </si>
   <si>
-    <t>Etiqueta - Parte F</t>
-  </si>
-  <si>
-    <t>Factor de atenuación -  Fa</t>
-  </si>
-  <si>
-    <t>Periodo de retorno - Tr</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -537,91 +528,91 @@
     <t>D</t>
   </si>
   <si>
-    <t>PMAX24H_FSCALIF_1</t>
+    <t>Actividad</t>
   </si>
   <si>
-    <t>PMax24h</t>
+    <t>Descripción</t>
   </si>
   <si>
-    <t>P_TR2.33_FSCALIF_1</t>
+    <t xml:space="preserve">1.1. Conceptos básicos de diseño asistido por computador - CAD </t>
   </si>
   <si>
-    <t>P_TR5_FSCALIF_1</t>
+    <t>Usos y aplicaciones de herramientas computacionales. Barra de menús. Comandos LINE, GRID y SNAP.</t>
   </si>
   <si>
-    <t>P_TR10_FSCALIF_1</t>
+    <t xml:space="preserve">1.2. Elementos básicos </t>
   </si>
   <si>
-    <t>P_TR25_FSCALIF_1</t>
+    <t xml:space="preserve">Coordenadas de usuario UCS. Barra de herramientas de puntos de convergencia. Comandos POLYLINE, ARC, FILLET, CHAMFER, POINT. Comandos ARRAY, MIRROR, OFFSET, DONUT, TRIM. Dibujo de la elipse, la parábola y la hipérbola. </t>
   </si>
   <si>
-    <t>P_TR50_FSCALIF_1</t>
+    <t>1.3. Bloques - Achurados- Viewports</t>
   </si>
   <si>
-    <t>P_TR100_FSCALIF_1</t>
+    <t>Diseño de bloques. Achurados. Sombra. Figuras rellenas. Mosaico de vistas. Vistas fijas — espacio modelo. Vistas flotantes — espacio papel. Comandos BLOCK, HATCHT, SOLIDS, VPORTS, MVIEW, PSPACE, VPLAYER.</t>
   </si>
   <si>
-    <t>PMAX24H_FSCALIF_062</t>
+    <t xml:space="preserve">1.4. Dimensionamiento </t>
   </si>
   <si>
-    <t>P_TR2.33_FSCALIF_062</t>
+    <t>Dimensionamiento. Estilo de la dimensión. Acotado de líneas rectas, círculos, arcos y ángulos. Editar dimensiones. Superficies normales, inclinadas y oblicuas. Visibilidad de aristas.</t>
   </si>
   <si>
-    <t>P_TR5_FSCALIF_062</t>
+    <t>1.5. Impresión</t>
   </si>
   <si>
-    <t>P_TR10_FSCALIF_062</t>
+    <t xml:space="preserve">Espacio papel y espacio modelo. Asignación de escala. Configuración de impresora y trazadores (plotter). Configuración del trazado. Impresión. Comandos MVSETUP, PRINT, ZOOM – Scale. </t>
   </si>
   <si>
-    <t>P_TR25_FSCALIF_062</t>
+    <t xml:space="preserve">1.6. Proyecto de dibujo asistido por computadora con AutoCAD </t>
   </si>
   <si>
-    <t>P_TR50_FSCALIF_062</t>
+    <t xml:space="preserve">Layers, papel. Texto menor, texto mayor. Planos de referencia para posiciones espaciales. Limits. Coordenadas cartesianas X, Y, Z. Coordenadas relativas posicionales. Coordenadas geográficas. </t>
   </si>
   <si>
-    <t>P_TR100_FSCALIF_062</t>
+    <t>2.1. Introducción</t>
   </si>
   <si>
-    <t>PMAX24H_FSCALIF_063</t>
+    <t>Sistemas de información geográfica. Fundamentos. Proyecciones y origen de coordenadas. Simbología, y estadísticas generales. Tablas relacionales.</t>
   </si>
   <si>
-    <t>P_TR2.33_FSCALIF_063</t>
+    <t>2.2 Definición y edición de elementos</t>
   </si>
   <si>
-    <t>P_TR5_FSCALIF_063</t>
+    <t>Bases de datos y su manejo en SIG. Definición de elementos de un SIG (shapes, raster, vectores, etc.). Edición de elementos. Digitalización y entrada de entidades. Creación y edición de tablas relacionales. Ejercicio de aplicación (proyecto aplicado en ingeniería eléctrica).</t>
   </si>
   <si>
-    <t>P_TR10_FSCALIF_063</t>
+    <t xml:space="preserve">2.3. Mapas e imágenes (QGIS, ArcGIS y otras herramientas) </t>
   </si>
   <si>
-    <t>P_TR25_FSCALIF_063</t>
+    <t>Mapas y cartografía. Elaboración de planos. Imágenes en SIG. Manejo y manipulación de imágenes. Ejercicio de aplicación (proyecto aplicado en ingeniería eléctrica).</t>
   </si>
   <si>
-    <t>P_TR50_FSCALIF_063</t>
+    <t xml:space="preserve">3.1. Introducción </t>
   </si>
   <si>
-    <t>P_TR100_FSCALIF_063</t>
+    <t>Conceptos de la metodología BIM. Generalidades del trabajo colaborativo. Taller conceptual.</t>
   </si>
   <si>
-    <t>PMAX24H_FSCALIF_064</t>
+    <t>3.2 Herramientas para la aplicación de la metodología BIM. Introducción al software Revit</t>
   </si>
   <si>
-    <t>P_TR2.33_FSCALIF_064</t>
+    <t xml:space="preserve">Uso de plantillas (templates). Fundamentos del software Revit. Configuración de Revit (Options).    </t>
   </si>
   <si>
-    <t>P_TR5_FSCALIF_064</t>
+    <t xml:space="preserve">3.3. Creación y manipulación de elementos en Revit </t>
   </si>
   <si>
-    <t>P_TR10_FSCALIF_064</t>
+    <t>Creación de vista de plantas (Plan views), Niveles de fondo (Underlay). Control de visualización (Visibility graphics). Láminas de ploteo (Sheets). Creación de WorkSets, Creación de un archivo local y Relinquish all mine. Ejercicio de aplicación (proyecto aplicado en ingeniería eléctrica).</t>
   </si>
   <si>
-    <t>P_TR25_FSCALIF_064</t>
+    <t xml:space="preserve">3.4. Familias de Revit </t>
   </si>
   <si>
-    <t>P_TR50_FSCALIF_064</t>
+    <t>Concepto de familias de Revit. Creación de perfiles. Creación de planos de trabajo. Convertir líneas en símbolos (Convert lines) y Controles de visibilidad. Ejercicio de aplicación (proyecto aplicado en ingeniería eléctrica).</t>
   </si>
   <si>
-    <t>P_TR100_FSCALIF_064</t>
+    <t>Proyecto</t>
   </si>
 </sst>
 </file>
@@ -1521,16 +1512,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2E19A4-40DE-42A8-B3E2-A2516218588C}">
   <dimension ref="B1:V103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q32" sqref="Q3:Q32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="63.92578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="2" max="3" width="46.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.640625" style="1" customWidth="1"/>
     <col min="5" max="6" width="6.640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="37.42578125" style="1" customWidth="1"/>
@@ -1623,27 +1613,27 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -1654,31 +1644,31 @@
       <c r="O3" s="4"/>
       <c r="P3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
-        <v>| Etiqueta - Parte F | Factor de atenuación -  Fa |</v>
+        <v>| Actividad | Descripción |</v>
       </c>
       <c r="Q3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
-        <v>| Etiqueta - Parte F | Factor de atenuación -  Fa | Periodo de retorno - Tr |</v>
+        <v>| Actividad | Descripción | Proyecto |</v>
       </c>
       <c r="R3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
-        <v>| Etiqueta - Parte F | Factor de atenuación -  Fa | Periodo de retorno - Tr | A |</v>
+        <v>| Actividad | Descripción | Proyecto | A |</v>
       </c>
       <c r="S3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |",F3," |")</f>
-        <v>| Etiqueta - Parte F | Factor de atenuación -  Fa | Periodo de retorno - Tr | A |B |</v>
+        <v>| Actividad | Descripción | Proyecto | A |B |</v>
       </c>
       <c r="T3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |",F3," |",G3," |")</f>
-        <v>| Etiqueta - Parte F | Factor de atenuación -  Fa | Periodo de retorno - Tr | A |B |C |</v>
+        <v>| Actividad | Descripción | Proyecto | A |B |C |</v>
       </c>
       <c r="U3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",G3," | ",H3," |")</f>
-        <v>| Etiqueta - Parte F | Factor de atenuación -  Fa | Periodo de retorno - Tr | A | B | C | D |</v>
+        <v>| Actividad | Descripción | Proyecto | A | B | C | D |</v>
       </c>
       <c r="V3" s="5" t="str">
         <f t="shared" ref="V3:V14" si="0">_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |",F3," |",G3," |",H3," |",I3," |",J3," |",K3," |",L3," |",M3," |",N3," |")</f>
-        <v>| Etiqueta - Parte F | Factor de atenuación -  Fa | Periodo de retorno - Tr | A |B |C |D | | | | | | |</v>
+        <v>| Actividad | Descripción | Proyecto | A |B |C |D | | | | | | |</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.55000000000000004">
@@ -1751,16 +1741,14 @@
         <v>| --- | --- | --- | --- |--- |--- |--- |--- |--- |--- |--- |--- |--- |</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:22" ht="46.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>164</v>
-      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1778,43 +1766,41 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| PMAX24H_FSCALIF_1 | 1 |</v>
+        <v>| 1.1. Conceptos básicos de diseño asistido por computador - CAD  | Usos y aplicaciones de herramientas computacionales. Barra de menús. Comandos LINE, GRID y SNAP. |</v>
       </c>
       <c r="Q5" s="5" t="str">
         <f t="shared" ref="Q5:Q38" si="3">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
-        <v>| PMAX24H_FSCALIF_1 | 1 | PMax24h |</v>
+        <v>| 1.1. Conceptos básicos de diseño asistido por computador - CAD  | Usos y aplicaciones de herramientas computacionales. Barra de menús. Comandos LINE, GRID y SNAP. |  |</v>
       </c>
       <c r="R5" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
-        <v>| PMAX24H_FSCALIF_1 | 1 | PMax24h | ✓ |</v>
+        <v>| 1.1. Conceptos básicos de diseño asistido por computador - CAD  | Usos y aplicaciones de herramientas computacionales. Barra de menús. Comandos LINE, GRID y SNAP. |  | ✓ |</v>
       </c>
       <c r="S5" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |",F5," |")</f>
-        <v>| PMAX24H_FSCALIF_1 | 1 | PMax24h | ✓ |✓ |</v>
+        <v>| 1.1. Conceptos básicos de diseño asistido por computador - CAD  | Usos y aplicaciones de herramientas computacionales. Barra de menús. Comandos LINE, GRID y SNAP. |  | ✓ |✓ |</v>
       </c>
       <c r="T5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| PMAX24H_FSCALIF_1 | 1 | PMax24h | ✓ |✓ | |</v>
+        <v>| 1.1. Conceptos básicos de diseño asistido por computador - CAD  | Usos y aplicaciones de herramientas computacionales. Barra de menús. Comandos LINE, GRID y SNAP. |  | ✓ |✓ | |</v>
       </c>
       <c r="U5" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| PMAX24H_FSCALIF_1 | 1 | PMax24h | ✓ | ✓ |  |  |</v>
+        <v>| 1.1. Conceptos básicos de diseño asistido por computador - CAD  | Usos y aplicaciones de herramientas computacionales. Barra de menús. Comandos LINE, GRID y SNAP. |  | ✓ | ✓ |  |  |</v>
       </c>
       <c r="V5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| PMAX24H_FSCALIF_1 | 1 | PMax24h | ✓ |✓ | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>| 1.1. Conceptos básicos de diseño asistido por computador - CAD  | Usos y aplicaciones de herramientas computacionales. Barra de menús. Comandos LINE, GRID y SNAP. |  | ✓ |✓ | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="76.900000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2.33</v>
-      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1832,43 +1818,41 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5" t="str">
         <f t="shared" ref="P6:P14" si="4">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>| P_TR2.33_FSCALIF_1 | 1 |</v>
+        <v>| 1.2. Elementos básicos  | Coordenadas de usuario UCS. Barra de herramientas de puntos de convergencia. Comandos POLYLINE, ARC, FILLET, CHAMFER, POINT. Comandos ARRAY, MIRROR, OFFSET, DONUT, TRIM. Dibujo de la elipse, la parábola y la hipérbola.  |</v>
       </c>
       <c r="Q6" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| P_TR2.33_FSCALIF_1 | 1 | 2.33 |</v>
+        <v>| 1.2. Elementos básicos  | Coordenadas de usuario UCS. Barra de herramientas de puntos de convergencia. Comandos POLYLINE, ARC, FILLET, CHAMFER, POINT. Comandos ARRAY, MIRROR, OFFSET, DONUT, TRIM. Dibujo de la elipse, la parábola y la hipérbola.  |  |</v>
       </c>
       <c r="R6" s="5" t="str">
         <f t="shared" ref="R6:R67" si="5">_xlfn.CONCAT("| ",B6," | ",C6," | ",D6," | ",E6," |")</f>
-        <v>| P_TR2.33_FSCALIF_1 | 1 | 2.33 | ✓ |</v>
+        <v>| 1.2. Elementos básicos  | Coordenadas de usuario UCS. Barra de herramientas de puntos de convergencia. Comandos POLYLINE, ARC, FILLET, CHAMFER, POINT. Comandos ARRAY, MIRROR, OFFSET, DONUT, TRIM. Dibujo de la elipse, la parábola y la hipérbola.  |  | ✓ |</v>
       </c>
       <c r="S6" s="5" t="str">
         <f t="shared" ref="S6:S69" si="6">_xlfn.CONCAT("| ",B6," | ",C6," | ",D6," | ",E6," |",F6," |")</f>
-        <v>| P_TR2.33_FSCALIF_1 | 1 | 2.33 | ✓ |✕ |</v>
+        <v>| 1.2. Elementos básicos  | Coordenadas de usuario UCS. Barra de herramientas de puntos de convergencia. Comandos POLYLINE, ARC, FILLET, CHAMFER, POINT. Comandos ARRAY, MIRROR, OFFSET, DONUT, TRIM. Dibujo de la elipse, la parábola y la hipérbola.  |  | ✓ |✕ |</v>
       </c>
       <c r="T6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| P_TR2.33_FSCALIF_1 | 1 | 2.33 | ✓ |✕ | |</v>
+        <v>| 1.2. Elementos básicos  | Coordenadas de usuario UCS. Barra de herramientas de puntos de convergencia. Comandos POLYLINE, ARC, FILLET, CHAMFER, POINT. Comandos ARRAY, MIRROR, OFFSET, DONUT, TRIM. Dibujo de la elipse, la parábola y la hipérbola.  |  | ✓ |✕ | |</v>
       </c>
       <c r="U6" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| P_TR2.33_FSCALIF_1 | 1 | 2.33 | ✓ | ✕ |  |  |</v>
+        <v>| 1.2. Elementos básicos  | Coordenadas de usuario UCS. Barra de herramientas de puntos de convergencia. Comandos POLYLINE, ARC, FILLET, CHAMFER, POINT. Comandos ARRAY, MIRROR, OFFSET, DONUT, TRIM. Dibujo de la elipse, la parábola y la hipérbola.  |  | ✓ | ✕ |  |  |</v>
       </c>
       <c r="V6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| P_TR2.33_FSCALIF_1 | 1 | 2.33 | ✓ |✕ | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>| 1.2. Elementos básicos  | Coordenadas de usuario UCS. Barra de herramientas de puntos de convergencia. Comandos POLYLINE, ARC, FILLET, CHAMFER, POINT. Comandos ARRAY, MIRROR, OFFSET, DONUT, TRIM. Dibujo de la elipse, la parábola y la hipérbola.  |  | ✓ |✕ | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="76.900000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>5</v>
-      </c>
+      <c r="C7" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1886,43 +1870,41 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| P_TR5_FSCALIF_1 | 1 |</v>
+        <v>| 1.3. Bloques - Achurados- Viewports | Diseño de bloques. Achurados. Sombra. Figuras rellenas. Mosaico de vistas. Vistas fijas — espacio modelo. Vistas flotantes — espacio papel. Comandos BLOCK, HATCHT, SOLIDS, VPORTS, MVIEW, PSPACE, VPLAYER. |</v>
       </c>
       <c r="Q7" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| P_TR5_FSCALIF_1 | 1 | 5 |</v>
+        <v>| 1.3. Bloques - Achurados- Viewports | Diseño de bloques. Achurados. Sombra. Figuras rellenas. Mosaico de vistas. Vistas fijas — espacio modelo. Vistas flotantes — espacio papel. Comandos BLOCK, HATCHT, SOLIDS, VPORTS, MVIEW, PSPACE, VPLAYER. |  |</v>
       </c>
       <c r="R7" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| P_TR5_FSCALIF_1 | 1 | 5 | ✓ |</v>
+        <v>| 1.3. Bloques - Achurados- Viewports | Diseño de bloques. Achurados. Sombra. Figuras rellenas. Mosaico de vistas. Vistas fijas — espacio modelo. Vistas flotantes — espacio papel. Comandos BLOCK, HATCHT, SOLIDS, VPORTS, MVIEW, PSPACE, VPLAYER. |  | ✓ |</v>
       </c>
       <c r="S7" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| P_TR5_FSCALIF_1 | 1 | 5 | ✓ |✓ |</v>
+        <v>| 1.3. Bloques - Achurados- Viewports | Diseño de bloques. Achurados. Sombra. Figuras rellenas. Mosaico de vistas. Vistas fijas — espacio modelo. Vistas flotantes — espacio papel. Comandos BLOCK, HATCHT, SOLIDS, VPORTS, MVIEW, PSPACE, VPLAYER. |  | ✓ |✓ |</v>
       </c>
       <c r="T7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| P_TR5_FSCALIF_1 | 1 | 5 | ✓ |✓ | |</v>
+        <v>| 1.3. Bloques - Achurados- Viewports | Diseño de bloques. Achurados. Sombra. Figuras rellenas. Mosaico de vistas. Vistas fijas — espacio modelo. Vistas flotantes — espacio papel. Comandos BLOCK, HATCHT, SOLIDS, VPORTS, MVIEW, PSPACE, VPLAYER. |  | ✓ |✓ | |</v>
       </c>
       <c r="U7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| P_TR5_FSCALIF_1 | 1 | 5 | ✓ | ✓ |  |  |</v>
+        <v>| 1.3. Bloques - Achurados- Viewports | Diseño de bloques. Achurados. Sombra. Figuras rellenas. Mosaico de vistas. Vistas fijas — espacio modelo. Vistas flotantes — espacio papel. Comandos BLOCK, HATCHT, SOLIDS, VPORTS, MVIEW, PSPACE, VPLAYER. |  | ✓ | ✓ |  |  |</v>
       </c>
       <c r="V7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| P_TR5_FSCALIF_1 | 1 | 5 | ✓ |✓ | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>| 1.3. Bloques - Achurados- Viewports | Diseño de bloques. Achurados. Sombra. Figuras rellenas. Mosaico de vistas. Vistas fijas — espacio modelo. Vistas flotantes — espacio papel. Comandos BLOCK, HATCHT, SOLIDS, VPORTS, MVIEW, PSPACE, VPLAYER. |  | ✓ |✓ | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
-        <v>10</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>7</v>
       </c>
@@ -1940,43 +1922,41 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| P_TR10_FSCALIF_1 | 1 |</v>
+        <v>| 1.4. Dimensionamiento  | Dimensionamiento. Estilo de la dimensión. Acotado de líneas rectas, círculos, arcos y ángulos. Editar dimensiones. Superficies normales, inclinadas y oblicuas. Visibilidad de aristas. |</v>
       </c>
       <c r="Q8" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| P_TR10_FSCALIF_1 | 1 | 10 |</v>
+        <v>| 1.4. Dimensionamiento  | Dimensionamiento. Estilo de la dimensión. Acotado de líneas rectas, círculos, arcos y ángulos. Editar dimensiones. Superficies normales, inclinadas y oblicuas. Visibilidad de aristas. |  |</v>
       </c>
       <c r="R8" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| P_TR10_FSCALIF_1 | 1 | 10 | ✓ |</v>
+        <v>| 1.4. Dimensionamiento  | Dimensionamiento. Estilo de la dimensión. Acotado de líneas rectas, círculos, arcos y ángulos. Editar dimensiones. Superficies normales, inclinadas y oblicuas. Visibilidad de aristas. |  | ✓ |</v>
       </c>
       <c r="S8" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| P_TR10_FSCALIF_1 | 1 | 10 | ✓ |✕ |</v>
+        <v>| 1.4. Dimensionamiento  | Dimensionamiento. Estilo de la dimensión. Acotado de líneas rectas, círculos, arcos y ángulos. Editar dimensiones. Superficies normales, inclinadas y oblicuas. Visibilidad de aristas. |  | ✓ |✕ |</v>
       </c>
       <c r="T8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| P_TR10_FSCALIF_1 | 1 | 10 | ✓ |✕ | |</v>
+        <v>| 1.4. Dimensionamiento  | Dimensionamiento. Estilo de la dimensión. Acotado de líneas rectas, círculos, arcos y ángulos. Editar dimensiones. Superficies normales, inclinadas y oblicuas. Visibilidad de aristas. |  | ✓ |✕ | |</v>
       </c>
       <c r="U8" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| P_TR10_FSCALIF_1 | 1 | 10 | ✓ | ✕ |  |  |</v>
+        <v>| 1.4. Dimensionamiento  | Dimensionamiento. Estilo de la dimensión. Acotado de líneas rectas, círculos, arcos y ángulos. Editar dimensiones. Superficies normales, inclinadas y oblicuas. Visibilidad de aristas. |  | ✓ | ✕ |  |  |</v>
       </c>
       <c r="V8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| P_TR10_FSCALIF_1 | 1 | 10 | ✓ |✕ | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>| 1.4. Dimensionamiento  | Dimensionamiento. Estilo de la dimensión. Acotado de líneas rectas, círculos, arcos y ángulos. Editar dimensiones. Superficies normales, inclinadas y oblicuas. Visibilidad de aristas. |  | ✓ |✕ | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5">
-        <v>25</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1994,42 +1974,42 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| P_TR25_FSCALIF_1 | 1 |</v>
+        <v>| 1.5. Impresión | Espacio papel y espacio modelo. Asignación de escala. Configuración de impresora y trazadores (plotter). Configuración del trazado. Impresión. Comandos MVSETUP, PRINT, ZOOM – Scale.  |</v>
       </c>
       <c r="Q9" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| P_TR25_FSCALIF_1 | 1 | 25 |</v>
+        <v>| 1.5. Impresión | Espacio papel y espacio modelo. Asignación de escala. Configuración de impresora y trazadores (plotter). Configuración del trazado. Impresión. Comandos MVSETUP, PRINT, ZOOM – Scale.  |  |</v>
       </c>
       <c r="R9" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| P_TR25_FSCALIF_1 | 1 | 25 | ✓ |</v>
+        <v>| 1.5. Impresión | Espacio papel y espacio modelo. Asignación de escala. Configuración de impresora y trazadores (plotter). Configuración del trazado. Impresión. Comandos MVSETUP, PRINT, ZOOM – Scale.  |  | ✓ |</v>
       </c>
       <c r="S9" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| P_TR25_FSCALIF_1 | 1 | 25 | ✓ |✕ |</v>
+        <v>| 1.5. Impresión | Espacio papel y espacio modelo. Asignación de escala. Configuración de impresora y trazadores (plotter). Configuración del trazado. Impresión. Comandos MVSETUP, PRINT, ZOOM – Scale.  |  | ✓ |✕ |</v>
       </c>
       <c r="T9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| P_TR25_FSCALIF_1 | 1 | 25 | ✓ |✕ | |</v>
+        <v>| 1.5. Impresión | Espacio papel y espacio modelo. Asignación de escala. Configuración de impresora y trazadores (plotter). Configuración del trazado. Impresión. Comandos MVSETUP, PRINT, ZOOM – Scale.  |  | ✓ |✕ | |</v>
       </c>
       <c r="U9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| P_TR25_FSCALIF_1 | 1 | 25 | ✓ | ✕ |  |  |</v>
+        <v>| 1.5. Impresión | Espacio papel y espacio modelo. Asignación de escala. Configuración de impresora y trazadores (plotter). Configuración del trazado. Impresión. Comandos MVSETUP, PRINT, ZOOM – Scale.  |  | ✓ | ✕ |  |  |</v>
       </c>
       <c r="V9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| P_TR25_FSCALIF_1 | 1 | 25 | ✓ |✕ | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>| 1.5. Impresión | Espacio papel y espacio modelo. Asignación de escala. Configuración de impresora y trazadores (plotter). Configuración del trazado. Impresión. Comandos MVSETUP, PRINT, ZOOM – Scale.  |  | ✓ |✕ | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="76.900000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
-        <v>50</v>
+        <v>172</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>7</v>
@@ -2048,43 +2028,37 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| P_TR50_FSCALIF_1 | 1 |</v>
+        <v>| 1.6. Proyecto de dibujo asistido por computadora con AutoCAD  | Layers, papel. Texto menor, texto mayor. Planos de referencia para posiciones espaciales. Limits. Coordenadas cartesianas X, Y, Z. Coordenadas relativas posicionales. Coordenadas geográficas.  |</v>
       </c>
       <c r="Q10" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| P_TR50_FSCALIF_1 | 1 | 50 |</v>
+        <v>| 1.6. Proyecto de dibujo asistido por computadora con AutoCAD  | Layers, papel. Texto menor, texto mayor. Planos de referencia para posiciones espaciales. Limits. Coordenadas cartesianas X, Y, Z. Coordenadas relativas posicionales. Coordenadas geográficas.  | ✓ |</v>
       </c>
       <c r="R10" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| P_TR50_FSCALIF_1 | 1 | 50 | ✓ |</v>
+        <v>| 1.6. Proyecto de dibujo asistido por computadora con AutoCAD  | Layers, papel. Texto menor, texto mayor. Planos de referencia para posiciones espaciales. Limits. Coordenadas cartesianas X, Y, Z. Coordenadas relativas posicionales. Coordenadas geográficas.  | ✓ | ✓ |</v>
       </c>
       <c r="S10" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| P_TR50_FSCALIF_1 | 1 | 50 | ✓ |✕ |</v>
+        <v>| 1.6. Proyecto de dibujo asistido por computadora con AutoCAD  | Layers, papel. Texto menor, texto mayor. Planos de referencia para posiciones espaciales. Limits. Coordenadas cartesianas X, Y, Z. Coordenadas relativas posicionales. Coordenadas geográficas.  | ✓ | ✓ |✕ |</v>
       </c>
       <c r="T10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| P_TR50_FSCALIF_1 | 1 | 50 | ✓ |✕ | |</v>
+        <v>| 1.6. Proyecto de dibujo asistido por computadora con AutoCAD  | Layers, papel. Texto menor, texto mayor. Planos de referencia para posiciones espaciales. Limits. Coordenadas cartesianas X, Y, Z. Coordenadas relativas posicionales. Coordenadas geográficas.  | ✓ | ✓ |✕ | |</v>
       </c>
       <c r="U10" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| P_TR50_FSCALIF_1 | 1 | 50 | ✓ | ✕ |  |  |</v>
+        <v>| 1.6. Proyecto de dibujo asistido por computadora con AutoCAD  | Layers, papel. Texto menor, texto mayor. Planos de referencia para posiciones espaciales. Limits. Coordenadas cartesianas X, Y, Z. Coordenadas relativas posicionales. Coordenadas geográficas.  | ✓ | ✓ | ✕ |  |  |</v>
       </c>
       <c r="V10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| P_TR50_FSCALIF_1 | 1 | 50 | ✓ |✕ | | | | | | | | |</v>
+        <v>| 1.6. Proyecto de dibujo asistido por computadora con AutoCAD  | Layers, papel. Texto menor, texto mayor. Planos de referencia para posiciones espaciales. Limits. Coordenadas cartesianas X, Y, Z. Coordenadas relativas posicionales. Coordenadas geográficas.  | ✓ | ✓ |✕ | | | | | | | | |</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5">
-        <v>100</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
         <v>7</v>
       </c>
@@ -2102,43 +2076,41 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| P_TR100_FSCALIF_1 | 1 |</v>
+        <v>|  |  |</v>
       </c>
       <c r="Q11" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| P_TR100_FSCALIF_1 | 1 | 100 |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R11" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| P_TR100_FSCALIF_1 | 1 | 100 | ✓ |</v>
+        <v>|  |  |  | ✓ |</v>
       </c>
       <c r="S11" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| P_TR100_FSCALIF_1 | 1 | 100 | ✓ |✓ |</v>
+        <v>|  |  |  | ✓ |✓ |</v>
       </c>
       <c r="T11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| P_TR100_FSCALIF_1 | 1 | 100 | ✓ |✓ | |</v>
+        <v>|  |  |  | ✓ |✓ | |</v>
       </c>
       <c r="U11" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| P_TR100_FSCALIF_1 | 1 | 100 | ✓ | ✓ |  |  |</v>
+        <v>|  |  |  | ✓ | ✓ |  |  |</v>
       </c>
       <c r="V11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| P_TR100_FSCALIF_1 | 1 | 100 | ✓ |✓ | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>|  |  |  | ✓ |✓ | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="46.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>164</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -2152,39 +2124,39 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| PMAX24H_FSCALIF_062 | 0.62 |</v>
+        <v>| 2.1. Introducción | Sistemas de información geográfica. Fundamentos. Proyecciones y origen de coordenadas. Simbología, y estadísticas generales. Tablas relacionales. |</v>
       </c>
       <c r="Q12" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| PMAX24H_FSCALIF_062 | 0.62 | PMax24h |</v>
+        <v>| 2.1. Introducción | Sistemas de información geográfica. Fundamentos. Proyecciones y origen de coordenadas. Simbología, y estadísticas generales. Tablas relacionales. |  |</v>
       </c>
       <c r="R12" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| PMAX24H_FSCALIF_062 | 0.62 | PMax24h |  |</v>
+        <v>| 2.1. Introducción | Sistemas de información geográfica. Fundamentos. Proyecciones y origen de coordenadas. Simbología, y estadísticas generales. Tablas relacionales. |  |  |</v>
       </c>
       <c r="S12" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| PMAX24H_FSCALIF_062 | 0.62 | PMax24h |  | |</v>
+        <v>| 2.1. Introducción | Sistemas de información geográfica. Fundamentos. Proyecciones y origen de coordenadas. Simbología, y estadísticas generales. Tablas relacionales. |  |  | |</v>
       </c>
       <c r="T12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| PMAX24H_FSCALIF_062 | 0.62 | PMax24h |  | | |</v>
+        <v>| 2.1. Introducción | Sistemas de información geográfica. Fundamentos. Proyecciones y origen de coordenadas. Simbología, y estadísticas generales. Tablas relacionales. |  |  | | |</v>
       </c>
       <c r="U12" s="5"/>
       <c r="V12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| PMAX24H_FSCALIF_062 | 0.62 | PMax24h |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>| 2.1. Introducción | Sistemas de información geográfica. Fundamentos. Proyecciones y origen de coordenadas. Simbología, y estadísticas generales. Tablas relacionales. |  |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="92.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2.33</v>
+        <v>176</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -2199,39 +2171,39 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| P_TR2.33_FSCALIF_062 | 0.62 |</v>
+        <v>| 2.2 Definición y edición de elementos | Bases de datos y su manejo en SIG. Definición de elementos de un SIG (shapes, raster, vectores, etc.). Edición de elementos. Digitalización y entrada de entidades. Creación y edición de tablas relacionales. Ejercicio de aplicación (proyecto aplicado en ingeniería eléctrica). |</v>
       </c>
       <c r="Q13" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| P_TR2.33_FSCALIF_062 | 0.62 | 2.33 |</v>
+        <v>| 2.2 Definición y edición de elementos | Bases de datos y su manejo en SIG. Definición de elementos de un SIG (shapes, raster, vectores, etc.). Edición de elementos. Digitalización y entrada de entidades. Creación y edición de tablas relacionales. Ejercicio de aplicación (proyecto aplicado en ingeniería eléctrica). | ✓ |</v>
       </c>
       <c r="R13" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| P_TR2.33_FSCALIF_062 | 0.62 | 2.33 |  |</v>
+        <v>| 2.2 Definición y edición de elementos | Bases de datos y su manejo en SIG. Definición de elementos de un SIG (shapes, raster, vectores, etc.). Edición de elementos. Digitalización y entrada de entidades. Creación y edición de tablas relacionales. Ejercicio de aplicación (proyecto aplicado en ingeniería eléctrica). | ✓ |  |</v>
       </c>
       <c r="S13" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| P_TR2.33_FSCALIF_062 | 0.62 | 2.33 |  | |</v>
+        <v>| 2.2 Definición y edición de elementos | Bases de datos y su manejo en SIG. Definición de elementos de un SIG (shapes, raster, vectores, etc.). Edición de elementos. Digitalización y entrada de entidades. Creación y edición de tablas relacionales. Ejercicio de aplicación (proyecto aplicado en ingeniería eléctrica). | ✓ |  | |</v>
       </c>
       <c r="T13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| P_TR2.33_FSCALIF_062 | 0.62 | 2.33 |  | | |</v>
+        <v>| 2.2 Definición y edición de elementos | Bases de datos y su manejo en SIG. Definición de elementos de un SIG (shapes, raster, vectores, etc.). Edición de elementos. Digitalización y entrada de entidades. Creación y edición de tablas relacionales. Ejercicio de aplicación (proyecto aplicado en ingeniería eléctrica). | ✓ |  | | |</v>
       </c>
       <c r="U13" s="5"/>
       <c r="V13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| P_TR2.33_FSCALIF_062 | 0.62 | 2.33 |  | | | | | | | | | |</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+        <v>| 2.2 Definición y edición de elementos | Bases de datos y su manejo en SIG. Definición de elementos de un SIG (shapes, raster, vectores, etc.). Edición de elementos. Digitalización y entrada de entidades. Creación y edición de tablas relacionales. Ejercicio de aplicación (proyecto aplicado en ingeniería eléctrica). | ✓ |  | | | | | | | | | |</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="61.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="D14" s="5">
-        <v>5</v>
+        <v>178</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -2246,40 +2218,34 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>| P_TR5_FSCALIF_062 | 0.62 |</v>
+        <v>| 2.3. Mapas e imágenes (QGIS, ArcGIS y otras herramientas)  | Mapas y cartografía. Elaboración de planos. Imágenes en SIG. Manejo y manipulación de imágenes. Ejercicio de aplicación (proyecto aplicado en ingeniería eléctrica). |</v>
       </c>
       <c r="Q14" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| P_TR5_FSCALIF_062 | 0.62 | 5 |</v>
+        <v>| 2.3. Mapas e imágenes (QGIS, ArcGIS y otras herramientas)  | Mapas y cartografía. Elaboración de planos. Imágenes en SIG. Manejo y manipulación de imágenes. Ejercicio de aplicación (proyecto aplicado en ingeniería eléctrica). | ✓ |</v>
       </c>
       <c r="R14" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>| P_TR5_FSCALIF_062 | 0.62 | 5 |  |</v>
+        <v>| 2.3. Mapas e imágenes (QGIS, ArcGIS y otras herramientas)  | Mapas y cartografía. Elaboración de planos. Imágenes en SIG. Manejo y manipulación de imágenes. Ejercicio de aplicación (proyecto aplicado en ingeniería eléctrica). | ✓ |  |</v>
       </c>
       <c r="S14" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>| P_TR5_FSCALIF_062 | 0.62 | 5 |  | |</v>
+        <v>| 2.3. Mapas e imágenes (QGIS, ArcGIS y otras herramientas)  | Mapas y cartografía. Elaboración de planos. Imágenes en SIG. Manejo y manipulación de imágenes. Ejercicio de aplicación (proyecto aplicado en ingeniería eléctrica). | ✓ |  | |</v>
       </c>
       <c r="T14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| P_TR5_FSCALIF_062 | 0.62 | 5 |  | | |</v>
+        <v>| 2.3. Mapas e imágenes (QGIS, ArcGIS y otras herramientas)  | Mapas y cartografía. Elaboración de planos. Imágenes en SIG. Manejo y manipulación de imágenes. Ejercicio de aplicación (proyecto aplicado en ingeniería eléctrica). | ✓ |  | | |</v>
       </c>
       <c r="U14" s="5"/>
       <c r="V14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| P_TR5_FSCALIF_062 | 0.62 | 5 |  | | | | | | | | | |</v>
+        <v>| 2.3. Mapas e imágenes (QGIS, ArcGIS y otras herramientas)  | Mapas y cartografía. Elaboración de planos. Imágenes en SIG. Manejo y manipulación de imágenes. Ejercicio de aplicación (proyecto aplicado en ingeniería eléctrica). | ✓ |  | | | | | | | | | |</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="D15" s="5">
-        <v>10</v>
-      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -2294,7 +2260,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| P_TR10_FSCALIF_062 | 0.62 | 10 |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -2302,16 +2268,14 @@
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:22" ht="30.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="D16" s="5">
-        <v>25</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -2326,7 +2290,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| P_TR25_FSCALIF_062 | 0.62 | 25 |</v>
+        <v>| 3.1. Introducción  | Conceptos de la metodología BIM. Generalidades del trabajo colaborativo. Taller conceptual. |  |</v>
       </c>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -2334,16 +2298,14 @@
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:22" ht="46.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="D17" s="5">
-        <v>50</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -2358,7 +2320,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| P_TR50_FSCALIF_062 | 0.62 | 50 |</v>
+        <v>| 3.2 Herramientas para la aplicación de la metodología BIM. Introducción al software Revit | Uso de plantillas (templates). Fundamentos del software Revit. Configuración de Revit (Options).     |  |</v>
       </c>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -2366,15 +2328,15 @@
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:22" ht="92.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="D18" s="5">
-        <v>100</v>
+        <v>184</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -2390,7 +2352,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| P_TR100_FSCALIF_062 | 0.62 | 100 |</v>
+        <v>| 3.3. Creación y manipulación de elementos en Revit  | Creación de vista de plantas (Plan views), Niveles de fondo (Underlay). Control de visualización (Visibility graphics). Láminas de ploteo (Sheets). Creación de WorkSets, Creación de un archivo local y Relinquish all mine. Ejercicio de aplicación (proyecto aplicado en ingeniería eléctrica). | ✓ |</v>
       </c>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -2398,15 +2360,15 @@
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:22" ht="76.900000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0.63</v>
+        <v>186</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -2422,7 +2384,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| PMAX24H_FSCALIF_063 | 0.63 | PMax24h |</v>
+        <v>| 3.4. Familias de Revit  | Concepto de familias de Revit. Creación de perfiles. Creación de planos de trabajo. Convertir líneas en símbolos (Convert lines) y Controles de visibilidad. Ejercicio de aplicación (proyecto aplicado en ingeniería eléctrica). | ✓ |</v>
       </c>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -2431,15 +2393,9 @@
       <c r="V19" s="5"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="D20" s="5">
-        <v>2.33</v>
-      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -2454,7 +2410,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| P_TR2.33_FSCALIF_063 | 0.63 | 2.33 |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -2463,15 +2419,9 @@
       <c r="V20" s="5"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="D21" s="5">
-        <v>5</v>
-      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -2486,7 +2436,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| P_TR5_FSCALIF_063 | 0.63 | 5 |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
@@ -2495,15 +2445,9 @@
       <c r="V21" s="5"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="D22" s="5">
-        <v>10</v>
-      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -2518,7 +2462,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| P_TR10_FSCALIF_063 | 0.63 | 10 |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -2527,15 +2471,9 @@
       <c r="V22" s="5"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="D23" s="5">
-        <v>25</v>
-      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -2550,7 +2488,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| P_TR25_FSCALIF_063 | 0.63 | 25 |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
@@ -2559,15 +2497,9 @@
       <c r="V23" s="5"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="D24" s="5">
-        <v>50</v>
-      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -2582,7 +2514,7 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| P_TR50_FSCALIF_063 | 0.63 | 50 |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
@@ -2591,15 +2523,9 @@
       <c r="V24" s="5"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="D25" s="5">
-        <v>100</v>
-      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -2614,7 +2540,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| P_TR100_FSCALIF_063 | 0.63 | 100 |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
@@ -2623,15 +2549,9 @@
       <c r="V25" s="5"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>164</v>
-      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -2646,7 +2566,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| PMAX24H_FSCALIF_064 | 0.64 | PMax24h |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
@@ -2655,15 +2575,9 @@
       <c r="V26" s="5"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="D27" s="4">
-        <v>2.33</v>
-      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -2678,7 +2592,7 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| P_TR2.33_FSCALIF_064 | 0.64 | 2.33 |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
@@ -2687,15 +2601,9 @@
       <c r="V27" s="5"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="D28" s="4">
-        <v>5</v>
-      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -2710,7 +2618,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| P_TR5_FSCALIF_064 | 0.64 | 5 |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
@@ -2719,15 +2627,9 @@
       <c r="V28" s="5"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="D29" s="4">
-        <v>10</v>
-      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -2742,7 +2644,7 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| P_TR10_FSCALIF_064 | 0.64 | 10 |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
@@ -2751,15 +2653,9 @@
       <c r="V29" s="5"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="D30" s="4">
-        <v>25</v>
-      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -2774,7 +2670,7 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| P_TR25_FSCALIF_064 | 0.64 | 25 |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
@@ -2783,15 +2679,9 @@
       <c r="V30" s="5"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C31" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="D31" s="4">
-        <v>50</v>
-      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -2806,7 +2696,7 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| P_TR50_FSCALIF_064 | 0.64 | 50 |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
@@ -2815,15 +2705,9 @@
       <c r="V31" s="5"/>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="D32" s="4">
-        <v>100</v>
-      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -2838,7 +2722,7 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>| P_TR100_FSCALIF_064 | 0.64 | 100 |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
